--- a/梦幻paradise机制时间轴.xlsx
+++ b/梦幻paradise机制时间轴.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_夢幻楽園ティエラ零式　残夢編4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tiera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82DF03D-D3E3-45F8-9D60-0436BFE1C059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>塔1、2出</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,22 +66,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梦幻paradise读条结束，传送门出现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>boss消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>boss出现，abracadabra读条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻paradise读条结束，传送门0出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋予黑白debuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白debuff倒计时结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,22 +453,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -469,48 +476,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -518,22 +525,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -541,17 +548,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -559,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -569,8 +576,11 @@
       <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -578,12 +588,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -591,7 +601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -602,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -610,12 +620,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -623,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -631,7 +641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -639,12 +649,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -652,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -660,7 +670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -668,40 +678,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -709,54 +719,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
